--- a/mvp/рецепт борщ.xlsx
+++ b/mvp/рецепт борщ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,13 +412,13 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16.1796875" customWidth="1" min="1" max="1"/>
-    <col width="8.36328125" customWidth="1" min="2" max="9"/>
+    <col width="16.21875" customWidth="1" min="1" max="1"/>
+    <col width="8.33203125" customWidth="1" min="2" max="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">

--- a/mvp/рецепт борщ.xlsx
+++ b/mvp/рецепт борщ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -61,10 +61,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,407 +411,423 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16.21875" customWidth="1" min="1" max="1"/>
-    <col width="8.33203125" customWidth="1" min="2" max="9"/>
+    <col width="16.21875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="8.33203125" customWidth="1" style="3" min="2" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" customFormat="1" s="4">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>назва страви</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>вареники</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>вихід</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>заг варт</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>заг кал</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>борщ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="B2" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="C2" t="n">
-        <v>6.863</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" s="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="4" t="n"/>
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>сума</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>950.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" s="4">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>продукт</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>на 1кг</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>брутто</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>нетто</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>варт</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>кал</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>ціна</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>кал100г</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>%ваги</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>%варт</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>%кал</t>
         </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>картопля</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>200</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>500</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20</v>
-      </c>
-      <c r="F4" t="n">
-        <v>250</v>
-      </c>
-      <c r="G4" s="2">
-        <f>(B4/B2)*100</f>
-        <v/>
-      </c>
-      <c r="H4" s="2">
-        <f>(C4/C2)*100</f>
-        <v/>
-      </c>
-      <c r="I4" s="2">
-        <f>(D4/D2)*100</f>
-        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>капуста</t>
+          <t>картопля</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>180</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" s="2">
-        <f>(B5/B2)*100</f>
-        <v/>
-      </c>
-      <c r="H5" s="2">
-        <f>(C5/C2)*100</f>
-        <v/>
-      </c>
-      <c r="I5" s="2">
-        <f>(D5/D2)*100</f>
-        <v/>
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="J5" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>морква</t>
+          <t>капуста</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.63</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n">
-        <v>200</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>6.3</v>
+        <v>90</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
-      </c>
-      <c r="G6" s="2">
-        <f>(B6/B2)*100</f>
-        <v/>
-      </c>
-      <c r="H6" s="2">
-        <f>(C6/C2)*100</f>
-        <v/>
-      </c>
-      <c r="I6" s="2">
-        <f>(D6/D2)*100</f>
-        <v/>
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>цибуля</t>
+          <t>морква</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.39</v>
+        <v>95</v>
       </c>
       <c r="D7" t="n">
-        <v>225</v>
+        <v>0.6</v>
       </c>
       <c r="E7" t="n">
-        <v>5.2</v>
+        <v>190</v>
       </c>
       <c r="F7" t="n">
-        <v>300</v>
-      </c>
-      <c r="G7" s="2">
-        <f>(B7/B2)*100</f>
-        <v/>
-      </c>
-      <c r="H7" s="2">
-        <f>(C7/C2)*100</f>
-        <v/>
-      </c>
-      <c r="I7" s="2">
-        <f>(D7/D2)*100</f>
-        <v/>
+        <v>6.3</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>фасоля</t>
+          <t>цибуля</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>75</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7125</v>
+        <v>71.25</v>
       </c>
       <c r="D8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>214</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="E8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" s="2">
-        <f>(B8/B2)*100</f>
-        <v/>
-      </c>
-      <c r="H8" s="2">
-        <f>(C8/C2)*100</f>
-        <v/>
-      </c>
-      <c r="I8" s="2">
-        <f>(D8/D2)*100</f>
-        <v/>
+      <c r="H8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>буряк</t>
+          <t>фасоля</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C9" t="n">
-        <v>0.28</v>
+        <v>75</v>
       </c>
       <c r="D9" t="n">
-        <v>175</v>
+        <v>0.7</v>
       </c>
       <c r="E9" t="n">
+        <v>300</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="H9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F9" t="n">
-        <v>500</v>
-      </c>
-      <c r="G9" s="2">
-        <f>(B9/B2)*100</f>
-        <v/>
-      </c>
-      <c r="H9" s="2">
-        <f>(C9/C2)*100</f>
-        <v/>
-      </c>
-      <c r="I9" s="2">
-        <f>(D9/D2)*100</f>
-        <v/>
+      <c r="I9" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>олія</t>
+          <t>буряк</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>0.35</v>
+        <v>33.25</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>0.3</v>
       </c>
       <c r="E10" t="n">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="F10" t="n">
-        <v>600</v>
-      </c>
-      <c r="G10" s="2">
-        <f>(B10/B2)*100</f>
-        <v/>
-      </c>
-      <c r="H10" s="2">
-        <f>(C10/C2)*100</f>
-        <v/>
-      </c>
-      <c r="I10" s="2">
-        <f>(D10/D2)*100</f>
-        <v/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>сіль</t>
+          <t>олія</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <f>(B11/B2)*100</f>
-        <v/>
-      </c>
-      <c r="H11" s="2">
-        <f>(C11/C2)*100</f>
-        <v/>
-      </c>
-      <c r="I11" s="2">
-        <f>(D11/D2)*100</f>
-        <v/>
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>сіль</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>вода</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>400</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <f>(B12/B2)*100</f>
-        <v/>
-      </c>
-      <c r="H12" s="2">
-        <f>(C12/C2)*100</f>
-        <v/>
-      </c>
-      <c r="I12" s="2">
-        <f>(D12/D2)*100</f>
-        <v/>
+      <c r="C13" t="n">
+        <v>400</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mvp/рецепт борщ.xlsx
+++ b/mvp/рецепт борщ.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -61,9 +61,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -414,17 +413,17 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16.21875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="8.33203125" customWidth="1" style="3" min="2" max="9"/>
+    <col width="16.21875" customWidth="1" style="2" min="1" max="1"/>
+    <col width="8.33203125" customWidth="1" style="2" min="2" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="4">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" customFormat="1" s="3">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>назва страви</t>
         </is>
@@ -436,25 +435,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>вихід</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="C2" s="4" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>сума</t>
         </is>
@@ -472,53 +471,53 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="4" customFormat="1" s="4">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="4" customFormat="1" s="3">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>продукт</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>брутто</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>нетто</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>варт</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>кал</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>ціна</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>кал100г</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>%ваги</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>%варт</t>
         </is>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>%кал</t>
         </is>
@@ -545,13 +544,13 @@
       <c r="F5" t="n">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="1" t="n">
         <v>59</v>
       </c>
       <c r="J5" t="n">
@@ -579,13 +578,13 @@
       <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="1" t="n">
         <v>7</v>
       </c>
       <c r="J6" t="n">
@@ -613,13 +612,13 @@
       <c r="F7" t="n">
         <v>6.3</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="1" t="n">
         <v>9</v>
       </c>
       <c r="J7" t="n">
@@ -647,13 +646,13 @@
       <c r="F8" t="n">
         <v>5.2</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="J8" t="n">
@@ -681,13 +680,13 @@
       <c r="F9" t="n">
         <v>9.5</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J9" t="n">
@@ -715,13 +714,13 @@
       <c r="F10" t="n">
         <v>8</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="n">
@@ -749,13 +748,13 @@
       <c r="F11" t="n">
         <v>35</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="n">
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="n">
@@ -783,13 +782,13 @@
       <c r="F12" t="n">
         <v>0.1</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
@@ -817,13 +816,13 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="n">
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">

--- a/mvp/рецепт борщ.xlsx
+++ b/mvp/рецепт борщ.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
